--- a/sources/Adyghe_data.xlsx
+++ b/sources/Adyghe_data.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Adyghe" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Adyghe!$A$1:$S$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Adyghe!$A$1:$U$131</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="781">
   <si>
     <t>language_no</t>
   </si>
@@ -1809,9 +1809,6 @@
     <t>и-зы хъу</t>
   </si>
   <si>
-    <t>LOCCONT</t>
-  </si>
-  <si>
     <t>гъоты</t>
   </si>
   <si>
@@ -1884,18 +1881,12 @@
     <t>къы-гу-ры-Iо</t>
   </si>
   <si>
-    <t>LOCHEARTPRVINSTR</t>
-  </si>
-  <si>
     <t>зы-уIо</t>
   </si>
   <si>
     <t>те-пкIэ</t>
   </si>
   <si>
-    <t>LOCTOP</t>
-  </si>
-  <si>
     <t>кIэ-гушIу</t>
   </si>
   <si>
@@ -1908,9 +1899,6 @@
     <t>Iэ.пы-зы</t>
   </si>
   <si>
-    <t>LOCHANDLOCTIP</t>
-  </si>
-  <si>
     <t>и-тхьэмат</t>
   </si>
   <si>
@@ -1950,9 +1938,6 @@
     <t>уасэ</t>
   </si>
   <si>
-    <t>INALPOSS</t>
-  </si>
-  <si>
     <t>и-тэкъо</t>
   </si>
   <si>
@@ -2016,45 +2001,12 @@
     <t>те-укIыты.хьа</t>
   </si>
   <si>
-    <t>LOCFRONT</t>
-  </si>
-  <si>
-    <t>LOCBEHINDLOCAFTER</t>
-  </si>
-  <si>
-    <t>LOCTO</t>
-  </si>
-  <si>
-    <t>LOCAFTER</t>
-  </si>
-  <si>
-    <t>INSTRCASE</t>
-  </si>
-  <si>
-    <t>LOCBEHIND</t>
-  </si>
-  <si>
     <t>PPweze</t>
   </si>
   <si>
-    <t>RECIOLOCTIPPRVINSTR</t>
-  </si>
-  <si>
-    <t>LOCENCLOSURE</t>
-  </si>
-  <si>
-    <t>COMDAT</t>
-  </si>
-  <si>
     <t>COM</t>
   </si>
   <si>
-    <t>LOCAMONG</t>
-  </si>
-  <si>
-    <t>LOCUNDERLOCCONT</t>
-  </si>
-  <si>
     <t>AdnominalPossessor_ABS</t>
   </si>
   <si>
@@ -2073,24 +2025,9 @@
     <t>ERG_BEN</t>
   </si>
   <si>
-    <t>ABS_LOCFRONT</t>
-  </si>
-  <si>
-    <t>ABS_LOCCONT</t>
-  </si>
-  <si>
-    <t>ABS_LOCTOP</t>
-  </si>
-  <si>
     <t>ERG_DAT</t>
   </si>
   <si>
-    <t>ABS_LOCBEHINDLOCAFTER</t>
-  </si>
-  <si>
-    <t>ABS_LOCTO</t>
-  </si>
-  <si>
     <t>LOC_ABS</t>
   </si>
   <si>
@@ -2100,63 +2037,18 @@
     <t>ERG_LOC</t>
   </si>
   <si>
-    <t>ABS_LOCAFTER</t>
-  </si>
-  <si>
-    <t>ERG_INSTRCASE</t>
-  </si>
-  <si>
-    <t>ABS_LOCBEHIND</t>
-  </si>
-  <si>
     <t>DAT_ABS</t>
   </si>
   <si>
-    <t>ERG_LOCTOP</t>
-  </si>
-  <si>
-    <t>LOCCONT_ABS</t>
-  </si>
-  <si>
     <t>ABS_PPweze</t>
   </si>
   <si>
-    <t>ABS_RECIOLOCTIPPRVINSTR</t>
-  </si>
-  <si>
-    <t>ABS_LOCENCLOSURE</t>
-  </si>
-  <si>
-    <t>ABS_COMDAT</t>
-  </si>
-  <si>
-    <t>LOCHEARTPRVINSTR_ABS</t>
-  </si>
-  <si>
-    <t>LOCTOP_ABS</t>
-  </si>
-  <si>
     <t>ABS_COM</t>
   </si>
   <si>
-    <t>LOCHANDLOCTIP_ABS</t>
-  </si>
-  <si>
     <t>ABS_POSS</t>
   </si>
   <si>
-    <t>ABS_LOCAMONG</t>
-  </si>
-  <si>
-    <t>ERG_COMDAT</t>
-  </si>
-  <si>
-    <t>INALPOSS_ABS</t>
-  </si>
-  <si>
-    <t>ABS_LOCUNDERLOCCONT</t>
-  </si>
-  <si>
     <t>В позиции абсолютивного подлежащего нормальная посессивная ИГ. Засчитываю по аналогии с другими языками.</t>
   </si>
   <si>
@@ -2359,6 +2251,120 @@
   </si>
   <si>
     <t>То же, что 58. Не получается: экспериенцер занимает позицию посессора при слове "сердце" в сложном выражении ("(что-то) несет рубашку в сердце парня")</t>
+  </si>
+  <si>
+    <t>verb_original_orthography</t>
+  </si>
+  <si>
+    <t>sentence_original_orthography</t>
+  </si>
+  <si>
+    <t>ABS_COM.DAT</t>
+  </si>
+  <si>
+    <t>COM.DAT</t>
+  </si>
+  <si>
+    <t>LOC.AFTER</t>
+  </si>
+  <si>
+    <t>ABS_LOC.AFTER</t>
+  </si>
+  <si>
+    <t>LOC.AMONG</t>
+  </si>
+  <si>
+    <t>ABS_LOC.AMONG</t>
+  </si>
+  <si>
+    <t>LOC.BEHIND</t>
+  </si>
+  <si>
+    <t>ABS_LOC.BEHIND</t>
+  </si>
+  <si>
+    <t>LOC.BEHIND.LOC.AFTER</t>
+  </si>
+  <si>
+    <t>ABS_LOC.BEHIND.LOC.AFTER</t>
+  </si>
+  <si>
+    <t>LOC.CONT</t>
+  </si>
+  <si>
+    <t>ABS_LOC.CONT</t>
+  </si>
+  <si>
+    <t>LOC.FRONT</t>
+  </si>
+  <si>
+    <t>LOC.ENCLOSURE</t>
+  </si>
+  <si>
+    <t>ABS_LOC.ENCLOSURE</t>
+  </si>
+  <si>
+    <t>ABS_LOC.FRONT</t>
+  </si>
+  <si>
+    <t>LOC.TOP</t>
+  </si>
+  <si>
+    <t>ABS_LOC.TOP</t>
+  </si>
+  <si>
+    <t>LOC.TO</t>
+  </si>
+  <si>
+    <t>ABS_LOC.TO</t>
+  </si>
+  <si>
+    <t>ABS_LOC.UNDER.LOC.CONT</t>
+  </si>
+  <si>
+    <t>LOC.UNDER.LOC.CONT</t>
+  </si>
+  <si>
+    <t>REC.IO.LOC.TIP.PRV.INSTR</t>
+  </si>
+  <si>
+    <t>ABS_REC.IO.LOC.TIP.PRV.INSTR</t>
+  </si>
+  <si>
+    <t>ERG_COM.DAT</t>
+  </si>
+  <si>
+    <t>INSTR.CASE</t>
+  </si>
+  <si>
+    <t>ERG_INSTR.CASE</t>
+  </si>
+  <si>
+    <t>INAL.POSS</t>
+  </si>
+  <si>
+    <t>INAL.POSS_ABS</t>
+  </si>
+  <si>
+    <t>ERG_LOC.TOP</t>
+  </si>
+  <si>
+    <t>LOC.HEART.PRV.INSTR</t>
+  </si>
+  <si>
+    <t>LOC.HAND.LOC.TIP</t>
+  </si>
+  <si>
+    <t>LOC.HAND.LOC.TIP_ABS</t>
+  </si>
+  <si>
+    <t>LOC.TOP_ABS</t>
+  </si>
+  <si>
+    <t>LOC.HEART.PRV.INSTR_ABS</t>
+  </si>
+  <si>
+    <t>LOC.CONT_ABS</t>
   </si>
 </sst>
 </file>
@@ -2733,11 +2739,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S131"/>
+  <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2760,9 +2764,11 @@
     <col min="17" max="17" width="18.81640625" customWidth="1"/>
     <col min="18" max="18" width="28.6328125" customWidth="1"/>
     <col min="19" max="19" width="113.81640625" customWidth="1"/>
+    <col min="20" max="20" width="28.6328125" customWidth="1"/>
+    <col min="21" max="21" width="113.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2820,8 +2826,14 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T1" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>69</v>
       </c>
@@ -2856,19 +2868,21 @@
         <v>8</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>711</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="5"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S2" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>69</v>
       </c>
@@ -2903,19 +2917,21 @@
         <v>8</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>712</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S3" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="T3" s="7"/>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>69</v>
       </c>
@@ -2950,7 +2966,7 @@
         <v>9</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -2959,8 +2975,10 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="5"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T4" s="7"/>
+      <c r="U4" s="5"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>69</v>
       </c>
@@ -2986,9 +3004,11 @@
         <v>542</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J5" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K5" s="5" t="s">
         <v>543</v>
       </c>
@@ -3002,8 +3022,10 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="5"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T5" s="7"/>
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>69</v>
       </c>
@@ -3038,19 +3060,21 @@
         <v>8</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>712</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S6" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>69</v>
       </c>
@@ -3085,19 +3109,21 @@
         <v>9</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>713</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="9"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S7" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="T7" s="7"/>
+      <c r="U7" s="9"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>69</v>
       </c>
@@ -3132,19 +3158,21 @@
         <v>9</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>714</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="5"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S8" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="T8" s="7"/>
+      <c r="U8" s="5"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>69</v>
       </c>
@@ -3170,9 +3198,11 @@
         <v>549</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K9" s="5" t="s">
         <v>543</v>
       </c>
@@ -3186,8 +3216,10 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="5"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T9" s="7"/>
+      <c r="U9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>69</v>
       </c>
@@ -3213,9 +3245,11 @@
         <v>550</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K10" s="5" t="s">
         <v>543</v>
       </c>
@@ -3229,8 +3263,10 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="5"/>
-    </row>
-    <row r="11" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T10" s="7"/>
+      <c r="U10" s="5"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>69</v>
       </c>
@@ -3258,22 +3294,26 @@
       <c r="I11" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>551</v>
+      </c>
       <c r="K11" s="5" t="s">
         <v>551</v>
       </c>
       <c r="L11" s="5"/>
-      <c r="M11" s="5" t="s">
-        <v>715</v>
-      </c>
+      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S11" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="T11" s="7"/>
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>69</v>
       </c>
@@ -3302,13 +3342,13 @@
         <v>541</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>664</v>
+        <v>757</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>683</v>
+        <v>760</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -3317,8 +3357,10 @@
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="5"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T12" s="7"/>
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>69</v>
       </c>
@@ -3347,13 +3389,13 @@
         <v>541</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>595</v>
+        <v>755</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>684</v>
+        <v>756</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -3362,8 +3404,10 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="5"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T13" s="7"/>
+      <c r="U13" s="5"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>69</v>
       </c>
@@ -3392,25 +3436,27 @@
         <v>541</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>623</v>
+        <v>761</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>716</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="9"/>
-    </row>
-    <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S14" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="T14" s="7"/>
+      <c r="U14" s="9"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>69</v>
       </c>
@@ -3439,13 +3485,13 @@
         <v>541</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>595</v>
+        <v>755</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>684</v>
+        <v>756</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -3453,9 +3499,11 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="9"/>
-    </row>
-    <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S15" s="5"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="9"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>69</v>
       </c>
@@ -3481,9 +3529,11 @@
         <v>556</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K16" s="5" t="s">
         <v>543</v>
       </c>
@@ -3496,9 +3546,11 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S16" s="5"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>69</v>
       </c>
@@ -3524,9 +3576,11 @@
         <v>557</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K17" s="5" t="s">
         <v>543</v>
       </c>
@@ -3540,8 +3594,10 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="5"/>
-    </row>
-    <row r="18" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T17" s="7"/>
+      <c r="U17" s="5"/>
+    </row>
+    <row r="18" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>69</v>
       </c>
@@ -3576,19 +3632,21 @@
         <v>9</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>717</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="5"/>
-    </row>
-    <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S18" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="T18" s="7"/>
+      <c r="U18" s="5"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>69</v>
       </c>
@@ -3614,9 +3672,11 @@
         <v>559</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J19" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K19" s="5" t="s">
         <v>543</v>
       </c>
@@ -3630,8 +3690,10 @@
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="5"/>
-    </row>
-    <row r="20" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T19" s="7"/>
+      <c r="U19" s="5"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>69</v>
       </c>
@@ -3660,13 +3722,13 @@
         <v>541</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>665</v>
+        <v>753</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>687</v>
+        <v>754</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -3674,9 +3736,11 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="9"/>
-    </row>
-    <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S20" s="5"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="9"/>
+    </row>
+    <row r="21" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>69</v>
       </c>
@@ -3702,9 +3766,11 @@
         <v>561</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J21" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K21" s="5" t="s">
         <v>543</v>
       </c>
@@ -3718,8 +3784,10 @@
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="5"/>
-    </row>
-    <row r="22" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T21" s="7"/>
+      <c r="U21" s="5"/>
+    </row>
+    <row r="22" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>69</v>
       </c>
@@ -3748,25 +3816,27 @@
         <v>541</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>666</v>
+        <v>763</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>718</v>
-      </c>
+        <v>764</v>
+      </c>
+      <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="9"/>
-    </row>
-    <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S22" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="T22" s="7"/>
+      <c r="U22" s="9"/>
+    </row>
+    <row r="23" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>69</v>
       </c>
@@ -3795,25 +3865,27 @@
         <v>541</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>666</v>
+        <v>763</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>719</v>
-      </c>
+        <v>764</v>
+      </c>
+      <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="5"/>
-    </row>
-    <row r="24" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S23" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="T23" s="7"/>
+      <c r="U23" s="5"/>
+    </row>
+    <row r="24" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>69</v>
       </c>
@@ -3848,7 +3920,7 @@
         <v>9</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -3856,9 +3928,11 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="9"/>
-    </row>
-    <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S24" s="5"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="9"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>69</v>
       </c>
@@ -3893,19 +3967,21 @@
         <v>8</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>720</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="5"/>
-    </row>
-    <row r="26" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S25" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="T25" s="7"/>
+      <c r="U25" s="5"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>69</v>
       </c>
@@ -3940,7 +4016,7 @@
         <v>9</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -3949,8 +4025,10 @@
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="5"/>
-    </row>
-    <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T26" s="7"/>
+      <c r="U26" s="5"/>
+    </row>
+    <row r="27" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>69</v>
       </c>
@@ -3976,9 +4054,11 @@
         <v>566</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K27" s="5" t="s">
         <v>543</v>
       </c>
@@ -3992,8 +4072,10 @@
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="5"/>
-    </row>
-    <row r="28" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T27" s="7"/>
+      <c r="U27" s="5"/>
+    </row>
+    <row r="28" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>69</v>
       </c>
@@ -4019,26 +4101,30 @@
         <v>567</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K28" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M28" s="5" t="s">
-        <v>721</v>
-      </c>
+      <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="5"/>
-    </row>
-    <row r="29" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S28" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="T28" s="7"/>
+      <c r="U28" s="5"/>
+    </row>
+    <row r="29" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>69</v>
       </c>
@@ -4073,7 +4159,7 @@
         <v>9</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -4082,8 +4168,10 @@
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="5"/>
-    </row>
-    <row r="30" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T29" s="7"/>
+      <c r="U29" s="5"/>
+    </row>
+    <row r="30" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>69</v>
       </c>
@@ -4118,19 +4206,21 @@
         <v>8</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>712</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="9"/>
-    </row>
-    <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S30" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="T30" s="7"/>
+      <c r="U30" s="9"/>
+    </row>
+    <row r="31" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>69</v>
       </c>
@@ -4165,19 +4255,21 @@
         <v>9</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>722</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="5"/>
-    </row>
-    <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S31" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="T31" s="7"/>
+      <c r="U31" s="5"/>
+    </row>
+    <row r="32" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>69</v>
       </c>
@@ -4212,7 +4304,7 @@
         <v>9</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -4221,8 +4313,10 @@
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="5"/>
-    </row>
-    <row r="33" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T32" s="7"/>
+      <c r="U32" s="5"/>
+    </row>
+    <row r="33" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>69</v>
       </c>
@@ -4257,19 +4351,21 @@
         <v>9</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>723</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="5"/>
-    </row>
-    <row r="34" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S33" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="T33" s="7"/>
+      <c r="U33" s="5"/>
+    </row>
+    <row r="34" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>69</v>
       </c>
@@ -4295,9 +4391,11 @@
         <v>574</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J34" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K34" s="5" t="s">
         <v>543</v>
       </c>
@@ -4311,8 +4409,10 @@
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
       <c r="S34" s="5"/>
-    </row>
-    <row r="35" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T34" s="7"/>
+      <c r="U34" s="5"/>
+    </row>
+    <row r="35" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>69</v>
       </c>
@@ -4347,19 +4447,21 @@
         <v>9</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>724</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="5"/>
-    </row>
-    <row r="36" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S35" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="T35" s="7"/>
+      <c r="U35" s="5"/>
+    </row>
+    <row r="36" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>69</v>
       </c>
@@ -4394,19 +4496,21 @@
         <v>9</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>725</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="5"/>
-    </row>
-    <row r="37" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S36" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="T36" s="7"/>
+      <c r="U36" s="5"/>
+    </row>
+    <row r="37" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>69</v>
       </c>
@@ -4432,9 +4536,11 @@
         <v>577</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J37" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K37" s="5" t="s">
         <v>543</v>
       </c>
@@ -4448,8 +4554,10 @@
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
       <c r="S37" s="5"/>
-    </row>
-    <row r="38" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T37" s="7"/>
+      <c r="U37" s="5"/>
+    </row>
+    <row r="38" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>69</v>
       </c>
@@ -4475,26 +4583,30 @@
         <v>578</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J38" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K38" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M38" s="5" t="s">
-        <v>726</v>
-      </c>
+      <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="5"/>
-    </row>
-    <row r="39" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S38" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="T38" s="7"/>
+      <c r="U38" s="5"/>
+    </row>
+    <row r="39" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>69</v>
       </c>
@@ -4529,19 +4641,21 @@
         <v>8</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>727</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="5"/>
-    </row>
-    <row r="40" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S39" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="T39" s="7"/>
+      <c r="U39" s="5"/>
+    </row>
+    <row r="40" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>69</v>
       </c>
@@ -4570,13 +4684,13 @@
         <v>541</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>667</v>
+        <v>747</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>692</v>
+        <v>748</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -4585,8 +4699,10 @@
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="5"/>
-    </row>
-    <row r="41" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T40" s="7"/>
+      <c r="U40" s="5"/>
+    </row>
+    <row r="41" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>69</v>
       </c>
@@ -4612,9 +4728,11 @@
         <v>580</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J41" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K41" s="5" t="s">
         <v>543</v>
       </c>
@@ -4628,8 +4746,10 @@
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
       <c r="S41" s="5"/>
-    </row>
-    <row r="42" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T41" s="7"/>
+      <c r="U41" s="5"/>
+    </row>
+    <row r="42" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>69</v>
       </c>
@@ -4664,7 +4784,7 @@
         <v>9</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
@@ -4673,8 +4793,10 @@
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
       <c r="S42" s="5"/>
-    </row>
-    <row r="43" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T42" s="7"/>
+      <c r="U42" s="5"/>
+    </row>
+    <row r="43" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>69</v>
       </c>
@@ -4700,26 +4822,30 @@
         <v>582</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J43" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K43" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L43" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M43" s="5" t="s">
-        <v>728</v>
-      </c>
+      <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="5"/>
-    </row>
-    <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S43" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="T43" s="7"/>
+      <c r="U43" s="5"/>
+    </row>
+    <row r="44" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>69</v>
       </c>
@@ -4745,9 +4871,11 @@
         <v>583</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J44" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K44" s="5" t="s">
         <v>543</v>
       </c>
@@ -4761,8 +4889,10 @@
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
       <c r="S44" s="5"/>
-    </row>
-    <row r="45" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T44" s="7"/>
+      <c r="U44" s="5"/>
+    </row>
+    <row r="45" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>69</v>
       </c>
@@ -4788,26 +4918,30 @@
         <v>584</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J45" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K45" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L45" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M45" s="5" t="s">
-        <v>729</v>
-      </c>
+      <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
-      <c r="S45" s="5"/>
-    </row>
-    <row r="46" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S45" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="T45" s="7"/>
+      <c r="U45" s="5"/>
+    </row>
+    <row r="46" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>69</v>
       </c>
@@ -4842,19 +4976,21 @@
         <v>9</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="M46" s="5" t="s">
-        <v>730</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
-      <c r="S46" s="5"/>
-    </row>
-    <row r="47" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S46" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="T46" s="7"/>
+      <c r="U46" s="5"/>
+    </row>
+    <row r="47" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>69</v>
       </c>
@@ -4880,26 +5016,30 @@
         <v>586</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J47" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K47" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M47" s="5" t="s">
-        <v>731</v>
-      </c>
+      <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="5"/>
-    </row>
-    <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S47" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="T47" s="7"/>
+      <c r="U47" s="5"/>
+    </row>
+    <row r="48" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>69</v>
       </c>
@@ -4928,25 +5068,27 @@
         <v>548</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>668</v>
+        <v>770</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="M48" s="5" t="s">
-        <v>732</v>
-      </c>
+        <v>771</v>
+      </c>
+      <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
-      <c r="S48" s="5"/>
-    </row>
-    <row r="49" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S48" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="T48" s="7"/>
+      <c r="U48" s="5"/>
+    </row>
+    <row r="49" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>69</v>
       </c>
@@ -4975,13 +5117,13 @@
         <v>541</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>669</v>
+        <v>751</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>694</v>
+        <v>752</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
@@ -4990,8 +5132,10 @@
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
       <c r="S49" s="5"/>
-    </row>
-    <row r="50" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T49" s="7"/>
+      <c r="U49" s="5"/>
+    </row>
+    <row r="50" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>69</v>
       </c>
@@ -5017,9 +5161,11 @@
         <v>589</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J50" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K50" s="5" t="s">
         <v>543</v>
       </c>
@@ -5033,8 +5179,10 @@
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
       <c r="S50" s="5"/>
-    </row>
-    <row r="51" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T50" s="7"/>
+      <c r="U50" s="5"/>
+    </row>
+    <row r="51" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>69</v>
       </c>
@@ -5060,26 +5208,30 @@
         <v>590</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J51" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K51" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L51" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M51" s="5" t="s">
-        <v>733</v>
-      </c>
+      <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
-      <c r="S51" s="5"/>
-    </row>
-    <row r="52" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S51" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="T51" s="7"/>
+      <c r="U51" s="5"/>
+    </row>
+    <row r="52" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>69</v>
       </c>
@@ -5114,19 +5266,21 @@
         <v>8</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>734</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="5"/>
-    </row>
-    <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S52" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="T52" s="7"/>
+      <c r="U52" s="5"/>
+    </row>
+    <row r="53" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>69</v>
       </c>
@@ -5155,25 +5309,27 @@
         <v>548</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>623</v>
+        <v>761</v>
       </c>
       <c r="K53" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="M53" s="5" t="s">
-        <v>735</v>
-      </c>
+        <v>774</v>
+      </c>
+      <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
-      <c r="S53" s="5"/>
-    </row>
-    <row r="54" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S53" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="T53" s="7"/>
+      <c r="U53" s="5"/>
+    </row>
+    <row r="54" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>69</v>
       </c>
@@ -5202,13 +5358,13 @@
         <v>541</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>623</v>
+        <v>761</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>685</v>
+        <v>762</v>
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
@@ -5217,8 +5373,10 @@
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
       <c r="S54" s="5"/>
-    </row>
-    <row r="55" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T54" s="7"/>
+      <c r="U54" s="5"/>
+    </row>
+    <row r="55" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>69</v>
       </c>
@@ -5244,7 +5402,7 @@
         <v>594</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>595</v>
+        <v>755</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>541</v>
@@ -5253,19 +5411,21 @@
         <v>8</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>736</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="5"/>
-    </row>
-    <row r="56" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S55" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="T55" s="7"/>
+      <c r="U55" s="5"/>
+    </row>
+    <row r="56" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>69</v>
       </c>
@@ -5288,12 +5448,14 @@
         <v>237</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J56" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K56" s="5" t="s">
         <v>543</v>
       </c>
@@ -5307,8 +5469,10 @@
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
       <c r="S56" s="5"/>
-    </row>
-    <row r="57" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T56" s="7"/>
+      <c r="U56" s="5"/>
+    </row>
+    <row r="57" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>69</v>
       </c>
@@ -5331,7 +5495,7 @@
         <v>241</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>545</v>
@@ -5343,19 +5507,21 @@
         <v>8</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="M57" s="5" t="s">
-        <v>737</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="5"/>
-    </row>
-    <row r="58" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S57" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="T57" s="7"/>
+      <c r="U57" s="5"/>
+    </row>
+    <row r="58" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>69</v>
       </c>
@@ -5378,7 +5544,7 @@
         <v>245</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>545</v>
@@ -5390,19 +5556,21 @@
         <v>8</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="M58" s="5" t="s">
-        <v>712</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
-      <c r="S58" s="5"/>
-    </row>
-    <row r="59" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S58" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="T58" s="7"/>
+      <c r="U58" s="5"/>
+    </row>
+    <row r="59" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>69</v>
       </c>
@@ -5425,27 +5593,31 @@
         <v>249</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="J59" s="5"/>
+      <c r="J59" s="5" t="s">
+        <v>551</v>
+      </c>
       <c r="K59" s="5" t="s">
         <v>551</v>
       </c>
       <c r="L59" s="5"/>
-      <c r="M59" s="5" t="s">
-        <v>738</v>
-      </c>
+      <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="5"/>
-    </row>
-    <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S59" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="T59" s="7"/>
+      <c r="U59" s="5"/>
+    </row>
+    <row r="60" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>69</v>
       </c>
@@ -5468,7 +5640,7 @@
         <v>253</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>539</v>
@@ -5480,19 +5652,21 @@
         <v>8</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="M60" s="5" t="s">
-        <v>739</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="5"/>
-    </row>
-    <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S60" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="T60" s="7"/>
+      <c r="U60" s="5"/>
+    </row>
+    <row r="61" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>69</v>
       </c>
@@ -5515,12 +5689,14 @@
         <v>257</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J61" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K61" s="5" t="s">
         <v>543</v>
       </c>
@@ -5534,8 +5710,10 @@
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
       <c r="S61" s="5"/>
-    </row>
-    <row r="62" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T61" s="7"/>
+      <c r="U61" s="5"/>
+    </row>
+    <row r="62" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>69</v>
       </c>
@@ -5558,7 +5736,7 @@
         <v>261</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>545</v>
@@ -5570,19 +5748,21 @@
         <v>8</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="M62" s="5" t="s">
-        <v>712</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="5"/>
-    </row>
-    <row r="63" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S62" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="T62" s="7"/>
+      <c r="U62" s="5"/>
+    </row>
+    <row r="63" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>69</v>
       </c>
@@ -5605,7 +5785,7 @@
         <v>265</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>548</v>
@@ -5617,19 +5797,21 @@
         <v>9</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="M63" s="5" t="s">
-        <v>740</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
-      <c r="S63" s="5"/>
-    </row>
-    <row r="64" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S63" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="T63" s="7"/>
+      <c r="U63" s="5"/>
+    </row>
+    <row r="64" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>69</v>
       </c>
@@ -5652,29 +5834,33 @@
         <v>269</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J64" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K64" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L64" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M64" s="5" t="s">
-        <v>741</v>
-      </c>
+      <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
-      <c r="S64" s="5"/>
-    </row>
-    <row r="65" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S64" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="T64" s="7"/>
+      <c r="U64" s="5"/>
+    </row>
+    <row r="65" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>69</v>
       </c>
@@ -5697,7 +5883,7 @@
         <v>273</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>541</v>
@@ -5709,19 +5895,21 @@
         <v>9</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="M65" s="5" t="s">
-        <v>742</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="5"/>
-    </row>
-    <row r="66" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S65" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="T65" s="7"/>
+      <c r="U65" s="5"/>
+    </row>
+    <row r="66" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>69</v>
       </c>
@@ -5744,31 +5932,33 @@
         <v>277</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>541</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="M66" s="5" t="s">
-        <v>743</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="5"/>
-    </row>
-    <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S66" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="T66" s="7"/>
+      <c r="U66" s="5"/>
+    </row>
+    <row r="67" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>69</v>
       </c>
@@ -5791,12 +5981,14 @@
         <v>281</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J67" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K67" s="5" t="s">
         <v>543</v>
       </c>
@@ -5810,8 +6002,10 @@
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
       <c r="S67" s="5"/>
-    </row>
-    <row r="68" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T67" s="7"/>
+      <c r="U67" s="5"/>
+    </row>
+    <row r="68" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>69</v>
       </c>
@@ -5834,27 +6028,31 @@
         <v>285</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="J68" s="5"/>
+      <c r="J68" s="5" t="s">
+        <v>551</v>
+      </c>
       <c r="K68" s="5" t="s">
         <v>551</v>
       </c>
       <c r="L68" s="5"/>
-      <c r="M68" s="5" t="s">
-        <v>744</v>
-      </c>
+      <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="5"/>
-    </row>
-    <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S68" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="T68" s="7"/>
+      <c r="U68" s="5"/>
+    </row>
+    <row r="69" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>69</v>
       </c>
@@ -5877,19 +6075,19 @@
         <v>289</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>541</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>671</v>
+        <v>767</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>699</v>
+        <v>768</v>
       </c>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
@@ -5898,8 +6096,10 @@
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
       <c r="S69" s="5"/>
-    </row>
-    <row r="70" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T69" s="7"/>
+      <c r="U69" s="5"/>
+    </row>
+    <row r="70" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -5922,29 +6122,33 @@
         <v>293</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J70" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K70" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L70" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M70" s="5" t="s">
-        <v>745</v>
-      </c>
+      <c r="M70" s="5"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
-      <c r="S70" s="5"/>
-    </row>
-    <row r="71" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S70" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="T70" s="7"/>
+      <c r="U70" s="5"/>
+    </row>
+    <row r="71" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -5967,12 +6171,14 @@
         <v>297</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J71" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K71" s="5" t="s">
         <v>543</v>
       </c>
@@ -5986,8 +6192,10 @@
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
       <c r="S71" s="5"/>
-    </row>
-    <row r="72" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T71" s="7"/>
+      <c r="U71" s="5"/>
+    </row>
+    <row r="72" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>69</v>
       </c>
@@ -6010,29 +6218,33 @@
         <v>301</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J72" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K72" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L72" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M72" s="5" t="s">
-        <v>746</v>
-      </c>
+      <c r="M72" s="5"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
-      <c r="S72" s="5"/>
-    </row>
-    <row r="73" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S72" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="T72" s="7"/>
+      <c r="U72" s="5"/>
+    </row>
+    <row r="73" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>69</v>
       </c>
@@ -6055,29 +6267,33 @@
         <v>305</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J73" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K73" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L73" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M73" s="5" t="s">
-        <v>721</v>
-      </c>
+      <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
-      <c r="S73" s="5"/>
-    </row>
-    <row r="74" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S73" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="T73" s="7"/>
+      <c r="U73" s="5"/>
+    </row>
+    <row r="74" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>69</v>
       </c>
@@ -6100,7 +6316,7 @@
         <v>309</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>541</v>
@@ -6112,7 +6328,7 @@
         <v>9</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
@@ -6121,8 +6337,10 @@
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
       <c r="S74" s="5"/>
-    </row>
-    <row r="75" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T74" s="7"/>
+      <c r="U74" s="5"/>
+    </row>
+    <row r="75" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>69</v>
       </c>
@@ -6145,19 +6363,19 @@
         <v>313</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>541</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>672</v>
+        <v>758</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>700</v>
+        <v>759</v>
       </c>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
@@ -6166,8 +6384,10 @@
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
       <c r="S75" s="5"/>
-    </row>
-    <row r="76" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T75" s="7"/>
+      <c r="U75" s="5"/>
+    </row>
+    <row r="76" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>69</v>
       </c>
@@ -6190,12 +6410,14 @@
         <v>317</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J76" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K76" s="5" t="s">
         <v>543</v>
       </c>
@@ -6209,8 +6431,10 @@
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
       <c r="S76" s="5"/>
-    </row>
-    <row r="77" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T76" s="7"/>
+      <c r="U76" s="5"/>
+    </row>
+    <row r="77" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>69</v>
       </c>
@@ -6233,29 +6457,33 @@
         <v>321</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J77" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K77" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L77" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M77" s="5" t="s">
-        <v>747</v>
-      </c>
+      <c r="M77" s="5"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
-      <c r="S77" s="5"/>
-    </row>
-    <row r="78" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S77" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="T77" s="7"/>
+      <c r="U77" s="5"/>
+    </row>
+    <row r="78" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>69</v>
       </c>
@@ -6278,19 +6506,19 @@
         <v>325</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>541</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>673</v>
+        <v>746</v>
       </c>
       <c r="K78" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>701</v>
+        <v>745</v>
       </c>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
@@ -6299,8 +6527,10 @@
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
       <c r="S78" s="5"/>
-    </row>
-    <row r="79" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T78" s="7"/>
+      <c r="U78" s="5"/>
+    </row>
+    <row r="79" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>69</v>
       </c>
@@ -6323,10 +6553,10 @@
         <v>329</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>620</v>
+        <v>775</v>
       </c>
       <c r="J79" s="5" t="s">
         <v>541</v>
@@ -6335,19 +6565,21 @@
         <v>8</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="M79" s="5" t="s">
-        <v>748</v>
-      </c>
+        <v>779</v>
+      </c>
+      <c r="M79" s="5"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
-      <c r="S79" s="5"/>
-    </row>
-    <row r="80" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S79" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="T79" s="7"/>
+      <c r="U79" s="5"/>
+    </row>
+    <row r="80" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>69</v>
       </c>
@@ -6382,19 +6614,21 @@
         <v>9</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="M80" s="5" t="s">
-        <v>749</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
-      <c r="S80" s="5"/>
-    </row>
-    <row r="81" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S80" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="T80" s="7"/>
+      <c r="U80" s="5"/>
+    </row>
+    <row r="81" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>69</v>
       </c>
@@ -6417,31 +6651,33 @@
         <v>337</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I81" s="5" t="s">
         <v>548</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>668</v>
+        <v>770</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="M81" s="5" t="s">
-        <v>750</v>
-      </c>
+        <v>771</v>
+      </c>
+      <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
-      <c r="S81" s="5"/>
-    </row>
-    <row r="82" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S81" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="T81" s="7"/>
+      <c r="U81" s="5"/>
+    </row>
+    <row r="82" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>69</v>
       </c>
@@ -6464,19 +6700,19 @@
         <v>341</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I82" s="5" t="s">
         <v>541</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>623</v>
+        <v>761</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>685</v>
+        <v>762</v>
       </c>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
@@ -6485,8 +6721,10 @@
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
       <c r="S82" s="5"/>
-    </row>
-    <row r="83" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T82" s="7"/>
+      <c r="U82" s="5"/>
+    </row>
+    <row r="83" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>69</v>
       </c>
@@ -6512,7 +6750,7 @@
         <v>554</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>623</v>
+        <v>761</v>
       </c>
       <c r="J83" s="5" t="s">
         <v>541</v>
@@ -6521,19 +6759,21 @@
         <v>8</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="M83" s="5" t="s">
-        <v>751</v>
-      </c>
+        <v>778</v>
+      </c>
+      <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
-      <c r="S83" s="5"/>
-    </row>
-    <row r="84" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S83" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="T83" s="7"/>
+      <c r="U83" s="5"/>
+    </row>
+    <row r="84" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>69</v>
       </c>
@@ -6556,19 +6796,19 @@
         <v>349</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="I84" s="5" t="s">
         <v>541</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>669</v>
+        <v>751</v>
       </c>
       <c r="K84" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>694</v>
+        <v>752</v>
       </c>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
@@ -6577,8 +6817,10 @@
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
       <c r="S84" s="5"/>
-    </row>
-    <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T84" s="7"/>
+      <c r="U84" s="5"/>
+    </row>
+    <row r="85" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>69</v>
       </c>
@@ -6601,19 +6843,19 @@
         <v>353</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="I85" s="5" t="s">
         <v>541</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="K85" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>704</v>
+        <v>673</v>
       </c>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
@@ -6622,8 +6864,10 @@
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
       <c r="S85" s="5"/>
-    </row>
-    <row r="86" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T85" s="7"/>
+      <c r="U85" s="5"/>
+    </row>
+    <row r="86" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>69</v>
       </c>
@@ -6646,7 +6890,7 @@
         <v>357</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="I86" s="5" t="s">
         <v>545</v>
@@ -6658,19 +6902,21 @@
         <v>8</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="M86" s="5" t="s">
-        <v>712</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M86" s="5"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
-      <c r="S86" s="5"/>
-    </row>
-    <row r="87" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S86" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="T86" s="7"/>
+      <c r="U86" s="5"/>
+    </row>
+    <row r="87" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>69</v>
       </c>
@@ -6693,10 +6939,10 @@
         <v>361</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>628</v>
+        <v>776</v>
       </c>
       <c r="J87" s="5" t="s">
         <v>541</v>
@@ -6705,19 +6951,21 @@
         <v>8</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="M87" s="5" t="s">
-        <v>712</v>
-      </c>
+        <v>777</v>
+      </c>
+      <c r="M87" s="5"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
-      <c r="S87" s="5"/>
-    </row>
-    <row r="88" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S87" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="T87" s="7"/>
+      <c r="U87" s="5"/>
+    </row>
+    <row r="88" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>69</v>
       </c>
@@ -6740,7 +6988,7 @@
         <v>365</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="I88" s="5" t="s">
         <v>541</v>
@@ -6752,7 +7000,7 @@
         <v>9</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>706</v>
+        <v>674</v>
       </c>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
@@ -6761,8 +7009,10 @@
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
       <c r="S88" s="5"/>
-    </row>
-    <row r="89" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T88" s="7"/>
+      <c r="U88" s="5"/>
+    </row>
+    <row r="89" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>69</v>
       </c>
@@ -6785,7 +7035,7 @@
         <v>369</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="I89" s="5" t="s">
         <v>541</v>
@@ -6797,7 +7047,7 @@
         <v>9</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
@@ -6806,8 +7056,10 @@
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
       <c r="S89" s="5"/>
-    </row>
-    <row r="90" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T89" s="7"/>
+      <c r="U89" s="5"/>
+    </row>
+    <row r="90" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>69</v>
       </c>
@@ -6830,19 +7082,19 @@
         <v>373</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="I90" s="5" t="s">
         <v>541</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="K90" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>698</v>
+        <v>672</v>
       </c>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
@@ -6851,8 +7103,10 @@
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
       <c r="S90" s="5"/>
-    </row>
-    <row r="91" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T90" s="7"/>
+      <c r="U90" s="5"/>
+    </row>
+    <row r="91" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>69</v>
       </c>
@@ -6875,7 +7129,7 @@
         <v>377</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="I91" s="5" t="s">
         <v>541</v>
@@ -6887,7 +7141,7 @@
         <v>9</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
@@ -6896,8 +7150,10 @@
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
       <c r="S91" s="5"/>
-    </row>
-    <row r="92" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T91" s="7"/>
+      <c r="U91" s="5"/>
+    </row>
+    <row r="92" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>69</v>
       </c>
@@ -6920,7 +7176,7 @@
         <v>381</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="I92" s="5" t="s">
         <v>541</v>
@@ -6932,19 +7188,21 @@
         <v>9</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="M92" s="5" t="s">
-        <v>752</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="M92" s="5"/>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
-      <c r="S92" s="5"/>
-    </row>
-    <row r="93" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S92" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="T92" s="7"/>
+      <c r="U92" s="5"/>
+    </row>
+    <row r="93" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>69</v>
       </c>
@@ -6967,7 +7225,7 @@
         <v>385</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="I93" s="5" t="s">
         <v>541</v>
@@ -6979,19 +7237,21 @@
         <v>9</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="M93" s="5" t="s">
-        <v>753</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
-      <c r="S93" s="5"/>
-    </row>
-    <row r="94" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S93" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="T93" s="7"/>
+      <c r="U93" s="5"/>
+    </row>
+    <row r="94" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>69</v>
       </c>
@@ -7014,29 +7274,33 @@
         <v>389</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J94" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K94" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L94" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M94" s="5" t="s">
-        <v>754</v>
-      </c>
+      <c r="M94" s="5"/>
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
-      <c r="S94" s="5"/>
-    </row>
-    <row r="95" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S94" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="T94" s="7"/>
+      <c r="U94" s="5"/>
+    </row>
+    <row r="95" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>69</v>
       </c>
@@ -7059,19 +7323,19 @@
         <v>393</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="I95" s="5" t="s">
         <v>541</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>675</v>
+        <v>749</v>
       </c>
       <c r="K95" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>707</v>
+        <v>750</v>
       </c>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
@@ -7080,8 +7344,10 @@
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
       <c r="S95" s="5"/>
-    </row>
-    <row r="96" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T95" s="7"/>
+      <c r="U95" s="5"/>
+    </row>
+    <row r="96" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>69</v>
       </c>
@@ -7104,7 +7370,7 @@
         <v>397</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="I96" s="5" t="s">
         <v>541</v>
@@ -7116,7 +7382,7 @@
         <v>9</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
@@ -7125,8 +7391,10 @@
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
       <c r="S96" s="5"/>
-    </row>
-    <row r="97" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T96" s="7"/>
+      <c r="U96" s="5"/>
+    </row>
+    <row r="97" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>69</v>
       </c>
@@ -7149,29 +7417,33 @@
         <v>401</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J97" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K97" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L97" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M97" s="5" t="s">
-        <v>755</v>
-      </c>
+      <c r="M97" s="5"/>
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
-      <c r="S97" s="5"/>
-    </row>
-    <row r="98" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S97" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="T97" s="7"/>
+      <c r="U97" s="5"/>
+    </row>
+    <row r="98" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>69</v>
       </c>
@@ -7194,29 +7466,33 @@
         <v>405</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J98" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K98" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L98" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M98" s="5" t="s">
-        <v>756</v>
-      </c>
+      <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="5"/>
-    </row>
-    <row r="99" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S98" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="T98" s="7"/>
+      <c r="U98" s="5"/>
+    </row>
+    <row r="99" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>69</v>
       </c>
@@ -7239,31 +7515,33 @@
         <v>409</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="I99" s="5" t="s">
         <v>548</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>673</v>
+        <v>746</v>
       </c>
       <c r="K99" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="M99" s="5" t="s">
-        <v>757</v>
-      </c>
+        <v>769</v>
+      </c>
+      <c r="M99" s="5"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="5"/>
-    </row>
-    <row r="100" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S99" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="T99" s="7"/>
+      <c r="U99" s="5"/>
+    </row>
+    <row r="100" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>69</v>
       </c>
@@ -7286,7 +7564,7 @@
         <v>413</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="I100" s="5" t="s">
         <v>541</v>
@@ -7298,19 +7576,21 @@
         <v>9</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="M100" s="5" t="s">
-        <v>758</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="M100" s="5"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="5"/>
-    </row>
-    <row r="101" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S100" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="T100" s="7"/>
+      <c r="U100" s="5"/>
+    </row>
+    <row r="101" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>69</v>
       </c>
@@ -7333,10 +7613,10 @@
         <v>417</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>642</v>
+        <v>772</v>
       </c>
       <c r="J101" s="5" t="s">
         <v>541</v>
@@ -7345,19 +7625,21 @@
         <v>8</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="M101" s="5" t="s">
-        <v>759</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="M101" s="5"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="5"/>
-    </row>
-    <row r="102" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S101" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="T101" s="7"/>
+      <c r="U101" s="5"/>
+    </row>
+    <row r="102" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>69</v>
       </c>
@@ -7392,19 +7674,21 @@
         <v>9</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="M102" s="5" t="s">
-        <v>760</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="M102" s="5"/>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
-      <c r="S102" s="5"/>
-    </row>
-    <row r="103" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S102" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="T102" s="7"/>
+      <c r="U102" s="5"/>
+    </row>
+    <row r="103" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>69</v>
       </c>
@@ -7427,12 +7711,14 @@
         <v>425</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J103" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K103" s="5" t="s">
         <v>543</v>
       </c>
@@ -7446,8 +7732,10 @@
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
       <c r="S103" s="5"/>
-    </row>
-    <row r="104" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T103" s="7"/>
+      <c r="U103" s="5"/>
+    </row>
+    <row r="104" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>69</v>
       </c>
@@ -7470,29 +7758,33 @@
         <v>428</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J104" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K104" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L104" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M104" s="5" t="s">
-        <v>721</v>
-      </c>
+      <c r="M104" s="5"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
-      <c r="S104" s="5"/>
-    </row>
-    <row r="105" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S104" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="T104" s="7"/>
+      <c r="U104" s="5"/>
+    </row>
+    <row r="105" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>69</v>
       </c>
@@ -7515,19 +7807,19 @@
         <v>432</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="I105" s="5" t="s">
         <v>541</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>676</v>
+        <v>766</v>
       </c>
       <c r="K105" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>710</v>
+        <v>765</v>
       </c>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
@@ -7536,8 +7828,10 @@
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
       <c r="S105" s="5"/>
-    </row>
-    <row r="106" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T105" s="7"/>
+      <c r="U105" s="5"/>
+    </row>
+    <row r="106" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>69</v>
       </c>
@@ -7560,12 +7854,14 @@
         <v>436</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J106" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K106" s="5" t="s">
         <v>543</v>
       </c>
@@ -7579,8 +7875,10 @@
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
       <c r="S106" s="5"/>
-    </row>
-    <row r="107" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T106" s="7"/>
+      <c r="U106" s="5"/>
+    </row>
+    <row r="107" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>69</v>
       </c>
@@ -7615,19 +7913,21 @@
         <v>9</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="M107" s="5" t="s">
-        <v>761</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="M107" s="5"/>
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
-      <c r="S107" s="5"/>
-    </row>
-    <row r="108" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S107" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="T107" s="7"/>
+      <c r="U107" s="5"/>
+    </row>
+    <row r="108" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>69</v>
       </c>
@@ -7650,7 +7950,7 @@
         <v>443</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="I108" s="5" t="s">
         <v>541</v>
@@ -7662,7 +7962,7 @@
         <v>9</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
@@ -7671,8 +7971,10 @@
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
       <c r="S108" s="5"/>
-    </row>
-    <row r="109" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T108" s="7"/>
+      <c r="U108" s="5"/>
+    </row>
+    <row r="109" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>69</v>
       </c>
@@ -7707,7 +8009,7 @@
         <v>9</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
@@ -7716,8 +8018,10 @@
       <c r="Q109" s="7"/>
       <c r="R109" s="7"/>
       <c r="S109" s="5"/>
-    </row>
-    <row r="110" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T109" s="7"/>
+      <c r="U109" s="5"/>
+    </row>
+    <row r="110" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>69</v>
       </c>
@@ -7740,29 +8044,33 @@
         <v>451</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J110" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K110" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L110" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M110" s="5" t="s">
-        <v>721</v>
-      </c>
+      <c r="M110" s="5"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
-    </row>
-    <row r="111" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S110" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="T110" s="7"/>
+      <c r="U110" s="7"/>
+    </row>
+    <row r="111" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>69</v>
       </c>
@@ -7785,7 +8093,7 @@
         <v>455</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="I111" s="5" t="s">
         <v>541</v>
@@ -7797,19 +8105,21 @@
         <v>9</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="M111" s="5" t="s">
-        <v>762</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="M111" s="5"/>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
-    </row>
-    <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S111" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="T111" s="7"/>
+      <c r="U111" s="7"/>
+    </row>
+    <row r="112" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>69</v>
       </c>
@@ -7832,29 +8142,33 @@
         <v>459</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J112" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K112" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L112" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M112" s="5" t="s">
-        <v>763</v>
-      </c>
+      <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
-    </row>
-    <row r="113" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S112" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="T112" s="7"/>
+      <c r="U112" s="7"/>
+    </row>
+    <row r="113" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>69</v>
       </c>
@@ -7877,7 +8191,7 @@
         <v>463</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="I113" s="5" t="s">
         <v>541</v>
@@ -7889,7 +8203,7 @@
         <v>9</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
@@ -7897,9 +8211,11 @@
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
-    </row>
-    <row r="114" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S113" s="5"/>
+      <c r="T113" s="7"/>
+      <c r="U113" s="7"/>
+    </row>
+    <row r="114" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>69</v>
       </c>
@@ -7925,26 +8241,30 @@
         <v>586</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J114" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K114" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L114" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M114" s="5" t="s">
-        <v>764</v>
-      </c>
+      <c r="M114" s="5"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
-    </row>
-    <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S114" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="T114" s="7"/>
+      <c r="U114" s="7"/>
+    </row>
+    <row r="115" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>69</v>
       </c>
@@ -7979,19 +8299,21 @@
         <v>9</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="M115" s="5" t="s">
-        <v>765</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="M115" s="5"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
-    </row>
-    <row r="116" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S115" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="T115" s="7"/>
+      <c r="U115" s="7"/>
+    </row>
+    <row r="116" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>69</v>
       </c>
@@ -8014,27 +8336,31 @@
         <v>475</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="I116" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="J116" s="5"/>
+      <c r="J116" s="5" t="s">
+        <v>551</v>
+      </c>
       <c r="K116" s="5" t="s">
         <v>551</v>
       </c>
       <c r="L116" s="5"/>
-      <c r="M116" s="5" t="s">
-        <v>766</v>
-      </c>
+      <c r="M116" s="5"/>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
-    </row>
-    <row r="117" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S116" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="T116" s="7"/>
+      <c r="U116" s="7"/>
+    </row>
+    <row r="117" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>69</v>
       </c>
@@ -8057,7 +8383,7 @@
         <v>479</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="I117" s="5" t="s">
         <v>541</v>
@@ -8069,7 +8395,7 @@
         <v>9</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
@@ -8077,9 +8403,11 @@
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
-    </row>
-    <row r="118" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S117" s="5"/>
+      <c r="T117" s="7"/>
+      <c r="U117" s="7"/>
+    </row>
+    <row r="118" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>69</v>
       </c>
@@ -8102,7 +8430,7 @@
         <v>483</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="I118" s="5" t="s">
         <v>541</v>
@@ -8114,19 +8442,21 @@
         <v>9</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="M118" s="5" t="s">
-        <v>767</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
-    </row>
-    <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S118" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="T118" s="7"/>
+      <c r="U118" s="7"/>
+    </row>
+    <row r="119" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>69</v>
       </c>
@@ -8149,29 +8479,33 @@
         <v>487</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J119" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K119" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L119" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M119" s="5" t="s">
-        <v>768</v>
-      </c>
+      <c r="M119" s="5"/>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
-      <c r="S119" s="5"/>
-    </row>
-    <row r="120" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S119" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="T119" s="7"/>
+      <c r="U119" s="5"/>
+    </row>
+    <row r="120" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>69</v>
       </c>
@@ -8194,7 +8528,7 @@
         <v>490</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="I120" s="5" t="s">
         <v>539</v>
@@ -8206,19 +8540,21 @@
         <v>8</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="M120" s="5" t="s">
-        <v>712</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="M120" s="5"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
-      <c r="S120" s="5"/>
-    </row>
-    <row r="121" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S120" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="T120" s="7"/>
+      <c r="U120" s="5"/>
+    </row>
+    <row r="121" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>69</v>
       </c>
@@ -8246,22 +8582,26 @@
       <c r="I121" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="J121" s="5"/>
+      <c r="J121" s="5" t="s">
+        <v>551</v>
+      </c>
       <c r="K121" s="5" t="s">
         <v>551</v>
       </c>
       <c r="L121" s="5"/>
-      <c r="M121" s="5" t="s">
-        <v>769</v>
-      </c>
+      <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
-      <c r="S121" s="5"/>
-    </row>
-    <row r="122" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S121" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="T121" s="7"/>
+      <c r="U121" s="5"/>
+    </row>
+    <row r="122" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>69</v>
       </c>
@@ -8284,7 +8624,7 @@
         <v>498</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="I122" s="5" t="s">
         <v>541</v>
@@ -8296,19 +8636,21 @@
         <v>9</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="M122" s="5" t="s">
-        <v>770</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="M122" s="5"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
-      <c r="S122" s="5"/>
-    </row>
-    <row r="123" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S122" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="T122" s="7"/>
+      <c r="U122" s="5"/>
+    </row>
+    <row r="123" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>69</v>
       </c>
@@ -8331,7 +8673,7 @@
         <v>502</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="I123" s="5" t="s">
         <v>541</v>
@@ -8343,19 +8685,21 @@
         <v>9</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="M123" s="5" t="s">
-        <v>771</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="5"/>
-    </row>
-    <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S123" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="T123" s="7"/>
+      <c r="U123" s="5"/>
+    </row>
+    <row r="124" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>69</v>
       </c>
@@ -8378,7 +8722,7 @@
         <v>506</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="I124" s="5" t="s">
         <v>548</v>
@@ -8390,19 +8734,21 @@
         <v>9</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="M124" s="5" t="s">
-        <v>772</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
-      <c r="S124" s="5"/>
-    </row>
-    <row r="125" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S124" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="T124" s="7"/>
+      <c r="U124" s="5"/>
+    </row>
+    <row r="125" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>69</v>
       </c>
@@ -8425,27 +8771,31 @@
         <v>510</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="I125" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="J125" s="5"/>
+      <c r="J125" s="5" t="s">
+        <v>551</v>
+      </c>
       <c r="K125" s="5" t="s">
         <v>551</v>
       </c>
       <c r="L125" s="5"/>
-      <c r="M125" s="5" t="s">
-        <v>773</v>
-      </c>
+      <c r="M125" s="5"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="5"/>
-    </row>
-    <row r="126" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S125" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="T125" s="7"/>
+      <c r="U125" s="5"/>
+    </row>
+    <row r="126" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>69</v>
       </c>
@@ -8468,29 +8818,33 @@
         <v>514</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J126" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K126" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L126" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M126" s="5" t="s">
-        <v>774</v>
-      </c>
+      <c r="M126" s="5"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="5"/>
-    </row>
-    <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S126" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="T126" s="7"/>
+      <c r="U126" s="5"/>
+    </row>
+    <row r="127" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>69</v>
       </c>
@@ -8513,27 +8867,31 @@
         <v>518</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="I127" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="J127" s="5"/>
+      <c r="J127" s="5" t="s">
+        <v>551</v>
+      </c>
       <c r="K127" s="5" t="s">
         <v>551</v>
       </c>
       <c r="L127" s="5"/>
-      <c r="M127" s="5" t="s">
-        <v>775</v>
-      </c>
+      <c r="M127" s="5"/>
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
-      <c r="S127" s="5"/>
-    </row>
-    <row r="128" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S127" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="T127" s="7"/>
+      <c r="U127" s="5"/>
+    </row>
+    <row r="128" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>69</v>
       </c>
@@ -8556,7 +8914,7 @@
         <v>522</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="I128" s="5" t="s">
         <v>545</v>
@@ -8568,19 +8926,21 @@
         <v>8</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="M128" s="5" t="s">
-        <v>776</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M128" s="5"/>
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
-      <c r="S128" s="5"/>
-    </row>
-    <row r="129" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S128" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="T128" s="7"/>
+      <c r="U128" s="5"/>
+    </row>
+    <row r="129" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>69</v>
       </c>
@@ -8603,27 +8963,31 @@
         <v>526</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="I129" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="J129" s="5"/>
+      <c r="J129" s="5" t="s">
+        <v>551</v>
+      </c>
       <c r="K129" s="5" t="s">
         <v>551</v>
       </c>
       <c r="L129" s="5"/>
-      <c r="M129" s="5" t="s">
-        <v>777</v>
-      </c>
+      <c r="M129" s="5"/>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
-      <c r="S129" s="5"/>
-    </row>
-    <row r="130" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S129" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="T129" s="7"/>
+      <c r="U129" s="5"/>
+    </row>
+    <row r="130" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>69</v>
       </c>
@@ -8646,27 +9010,31 @@
         <v>530</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I130" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="J130" s="5"/>
+      <c r="J130" s="5" t="s">
+        <v>551</v>
+      </c>
       <c r="K130" s="5" t="s">
         <v>551</v>
       </c>
       <c r="L130" s="5"/>
-      <c r="M130" s="5" t="s">
-        <v>778</v>
-      </c>
+      <c r="M130" s="5"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="5"/>
-    </row>
-    <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S130" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="T130" s="7"/>
+      <c r="U130" s="5"/>
+    </row>
+    <row r="131" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>69</v>
       </c>
@@ -8689,19 +9057,19 @@
         <v>534</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="I131" s="5" t="s">
         <v>541</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>623</v>
+        <v>761</v>
       </c>
       <c r="K131" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>685</v>
+        <v>762</v>
       </c>
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
@@ -8710,9 +9078,11 @@
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
       <c r="S131" s="5"/>
+      <c r="T131" s="7"/>
+      <c r="U131" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S131"/>
+  <autoFilter ref="A1:U131"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>